--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value266.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value266.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6339080584692974</v>
+        <v>1.669548153877258</v>
       </c>
       <c r="B1">
-        <v>0.8462985800761369</v>
+        <v>2.064101696014404</v>
       </c>
       <c r="C1">
-        <v>1.357134394797774</v>
+        <v>2.224788665771484</v>
       </c>
       <c r="D1">
-        <v>3.248900769983251</v>
+        <v>2.56936502456665</v>
       </c>
       <c r="E1">
-        <v>2.699558056935146</v>
+        <v>3.316083669662476</v>
       </c>
     </row>
   </sheetData>
